--- a/biology/Virologie/Virus_des_grosses_nervures_de_la_laitue/Virus_des_grosses_nervures_de_la_laitue.xlsx
+++ b/biology/Virologie/Virus_des_grosses_nervures_de_la_laitue/Virus_des_grosses_nervures_de_la_laitue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lettuce big-vein associated varicosavirus
 Le virus associé des grosses nervures de la laitue (LBVaV, Lettuce big-vein associated varicosavirus) est une espèce de virus du genre Varicosavirus (famille des Rhabdoviridae), dont c'est l'unique espèce (genre monotypique).
 C'est un virus à ARN à simple brin à polarité négative, classé dans le groupe V de la classification Baltimore.
 Ce virus infecte les plantes (phytovirus) dans les familles des Asteraceae et Solanaceae. La transmission est assurée dans le sol et dans les systèmes hydroponiques par les zoospores d'une espèce de champignons Chytridiomycètes,  Olpidium virulentus .
 Le LBVaV est fréquemment associé à la maladie des grosses nervures de la laitue causée par le Mirafiori lettuce big-vein virus (MLBVV) appartenant au genre Ophiovirus (famille des  Aspiviridae).
-Le LBVaV a été signalé en Europe, aux États-Unis, au Japon, en Arabie saoudite et en Australie[3] . 
+Le LBVaV a été signalé en Europe, aux États-Unis, au Japon, en Arabie saoudite et en Australie . 
 </t>
         </is>
       </c>
@@ -516,9 +528,11 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les virions sont des particules non enveloppées d'une longueur de 320 360 nm et d'un diamètre de 18 nm. Le génome, segmenté, est bipartite[4]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les virions sont des particules non enveloppées d'une longueur de 320 360 nm et d'un diamètre de 18 nm. Le génome, segmenté, est bipartite. 
 </t>
         </is>
       </c>
